--- a/examples/sources/data/unsolved/to_schedule/2018-11-22.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-22.xlsx
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" s="2">
         <v>43426</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" s="2">
         <v>43426</v>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" s="2">
         <v>43426</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177" s="2">
         <v>43426</v>
